--- a/pred_ohlcv/54_21/2020-01-15 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 ETH ohlcv.xlsx
@@ -2810,7 +2810,7 @@
         <v>235.9645563080594</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>235.9730563080594</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>235.9730563080594</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>251.5474563080594</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>825.7478563080593</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>831.8168563080594</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>795.1910256332128</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>748.7828256332128</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>748.7828256332128</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>751.9598256332129</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>751.9495256332128</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>756.9486256332128</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>756.9486256332128</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>756.9374256332128</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>771.9374256332128</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>774.1094256332128</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>774.1094256332128</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>776.2824256332128</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>773.3432256332128</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>773.3432256332128</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>775.2293256332129</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>770.2368256332129</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>768.2368256332129</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>768.2368256332129</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>768.2368256332129</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>768.2368256332129</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>768.2368256332129</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>770.7038256332129</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>773.7325256332128</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>772.6482256332129</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>772.6482256332129</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>760.1240256332128</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>762.5778256332128</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>762.5778256332128</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>756.6778256332128</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>747.5447256332128</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>748.9474256332128</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>666.3387949583663</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>666.3387949583663</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>666.3387949583663</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>666.3387949583663</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>666.3387949583663</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>690.9387949583663</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>690.8462949583663</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>705.0844949583663</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>705.0844949583663</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>799.1616949583663</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>749.3886949583663</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>749.3886949583663</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>784.2788949583663</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>764.0804949583663</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>813.7095949583663</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>803.7285949583663</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>737.2978949583663</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>767.2394949583663</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>767.2394949583663</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>767.2394949583663</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>766.7296949583663</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>766.7296949583663</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>766.7296949583663</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>766.7296949583663</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>797.3298949583663</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>2870.71490765446</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>2966.87660765446</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>2937.76520765446</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>2930.41580765446</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>3992.967811070794</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>4024.780511070794</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>4196.011111070794</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>4848.273916447138</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>4555.89119908608</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>4555.89119908608</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>4215.696336443437</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>4338.412636443437</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>4338.412636443437</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>4338.412636443437</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>4346.131536443437</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>4467.213369216546</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>4501.412569216546</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>4500.557469216546</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>4539.572469216547</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>4539.572469216547</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>4543.366569216547</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>4591.976813992666</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>4505.078513992667</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>4382.529469947185</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>4382.529469947185</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>4280.569869947185</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>4280.569869947185</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>4280.569869947185</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>4280.569869947185</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>4333.745869947185</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>4338.592692295897</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>4338.592692295897</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>4348.523292295897</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>4348.523292295897</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>4341.113692295897</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>4349.428092295897</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>4342.954892295897</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>4376.992492295896</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>4481.302292295896</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>4481.302292295896</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>4459.559492295896</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>4459.559492295896</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>4353.661992295896</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>4349.650692295896</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>4349.650692295896</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>4359.645192295896</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>4359.645192295896</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>4653.279308066505</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>4604.282508066505</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>4610.002464510419</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>4568.22196451042</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>4568.22196451042</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>4586.636364510419</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>4711.051375906601</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>4701.279275906601</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>4681.4734759066</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>4743.482017195383</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>4743.482017195383</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>4780.116217195384</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>4690.652117195384</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>4672.573417195384</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>5031.564513610636</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>5032.595913610636</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>5032.595913610636</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>5136.056266370724</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>5131.213566370724</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>5131.213566370724</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>5131.213566370724</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>5137.060066370724</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>5124.592866370724</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>5045.819266370723</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>5045.819266370723</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>4903.711566370724</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>4903.711566370724</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>4773.738166370724</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>5177.030948357754</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>5167.478248357754</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>5221.279248357754</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>5255.640044241295</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>5368.237415806409</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>5368.237415806409</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>5368.237415806409</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>5368.237415806409</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>5338.077515806409</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>5353.376715806409</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>5237.962415806409</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>5237.962415806409</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>5269.838215806409</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>5269.822215806409</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>5279.2790497777</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>5292.057315806409</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>5292.057315806409</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>5232.58951580641</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>5228.379815806409</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>5227.739115806409</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>5186.93311580641</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>5186.93311580641</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>5146.73271580641</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>5265.073215806409</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>5346.51941580641</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>5364.367715806409</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>5364.367715806409</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>5313.547815806409</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>5329.505163363024</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>5329.505163363024</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>5318.284563363024</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>5318.284563363024</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>5320.246963363024</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>5320.246963363024</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>5320.246963363024</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>5332.85885215921</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>5601.46950856183</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>5739.67940856183</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>5511.623715793603</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>5511.623715793603</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>5667.172815793603</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>5675.140815793603</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>5622.038415793603</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>5651.598715793603</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>5717.653615793603</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>5586.087215793604</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>5586.087215793604</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>5666.993215793604</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>5712.966615793604</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>5788.544615793604</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>5978.518315793604</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>5931.514415793605</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>5931.514415793605</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>5931.514415793605</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>5908.844615793605</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>5908.844615793605</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>5908.844615793605</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>5908.844615793605</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>5908.844615793605</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>5792.768015793605</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>5792.768015793605</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>5773.939915793605</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>5780.730515793605</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>5780.730515793605</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>5780.730515793605</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>5780.730515793605</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>5776.253615793606</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>5673.985215793606</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>5561.624115793606</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>5566.001715793605</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>5565.890915793605</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>5565.890915793605</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>5542.329115793605</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>5478.584815793604</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>5602.209815793604</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>5536.733115793604</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>5536.733115793604</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>5567.274815793604</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>5567.274815793604</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>5646.899253775799</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>5637.394253775799</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>5637.394253775799</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>5627.7864537758</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>5629.038053775799</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>5638.0692537758</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>5669.930908731289</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>5669.930908731289</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>5714.669964721799</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>5756.8342647218</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>5637.435764721799</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>5653.8571647218</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>5653.883460579787</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>5647.383460579787</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>5647.473460579788</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>5617.256360579788</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>5617.150860579788</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>5556.833810675331</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>5433.11331067533</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>5433.11331067533</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>5855.63471067533</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>5855.63471067533</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>5856.34661067533</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>5793.73811067533</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>5793.73811067533</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>5793.73811067533</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>5793.73811067533</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>5910.934900461553</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>5910.934900461553</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>5943.178300461554</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>5943.178300461554</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>6051.835100461553</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>6051.835100461553</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>6071.835100461553</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>6094.953728736597</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>6078.564028736598</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>6082.358683039269</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>5922.750583039268</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>5934.195383039269</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>5857.736083039268</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>5857.736083039268</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>5858.676283039268</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>5850.244483039268</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>5850.244483039268</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>5887.577683039268</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>5887.577683039268</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>5887.577683039268</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>5897.517683039267</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>5915.941354400215</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>5903.464254400214</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>5903.464254400214</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>5903.464254400214</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>5904.501454400214</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>5805.324754400214</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>5805.324754400214</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>5796.217854400214</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>5801.995954400215</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>5865.517454400215</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>5860.687454400215</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>5860.687454400215</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>5858.935454400214</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>5856.343354400215</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>5872.571754400215</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>5474.092854400214</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>5474.092854400214</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>5474.092854400214</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>5474.422854400214</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>5627.965054400214</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>5613.486454400214</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>5663.886454400214</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>5663.886454400214</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>5599.178054400213</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>5599.178054400213</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>5599.178054400213</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>5599.178054400213</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>5605.989954400213</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>5634.783806594756</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>5650.995206594756</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>5650.995206594756</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>5714.397506594756</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>5714.397506594756</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>5714.397506594756</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>5724.589931446827</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>5709.333431446827</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>5709.633431446827</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>5778.088831446827</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>5801.628931446827</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>5799.351131446827</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>5931.186531446827</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>5931.186531446827</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>6048.880131446826</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>6398.41876008588</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>7406.33606008588</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>7406.33606008588</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>7351.228462206021</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>7284.726990845073</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>7176.881590845073</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>7140.887390845073</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>7140.887390845073</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>7155.659790845073</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>7154.861490845073</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>7263.027790845073</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>7261.955890845073</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>7228.008290845072</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>7229.486090845072</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>7214.230490845071</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>7214.230490845071</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>6993.667890845071</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>6993.424490845071</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>7185.88189084507</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>7185.88189084507</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>7219.136090845071</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>7210.54369084507</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>7404.43609084507</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>8536.890590845071</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>8130.037690845071</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>8176.74389084507</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>8218.78929084507</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>8156.21959084507</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>8157.843390845071</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>8956.87319084507</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>9267.78469084507</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>8259.604229261493</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>7750.334611531493</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>7759.651411531492</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>7826.295075842446</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>7782.259050266545</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>7914.453950266546</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>7914.453950266546</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>7902.567634190896</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>7997.102234190896</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>7955.656934190895</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>7955.656934190895</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>8060.216034190896</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>8060.216034190896</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>8039.973134190896</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>8044.129634190896</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>8121.611934190895</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>7821.333634190895</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>7821.333634190895</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>7847.172834190896</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>7950.629534190895</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>7929.282087033558</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>7994.195981974734</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>7990.296581974734</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>8714.919222947889</v>
       </c>
       <c r="H1053">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>9400.977522947889</v>
       </c>
       <c r="H1054">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>9674.148379269729</v>
       </c>
       <c r="H1055">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>10146.58252975739</v>
       </c>
       <c r="H1056">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>10452.23909724311</v>
       </c>
       <c r="H1057">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>9971.295711234505</v>
       </c>
       <c r="H1058">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 ETH ohlcv.xlsx
@@ -2810,7 +2810,7 @@
         <v>235.9645563080594</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>235.9730563080594</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>235.9730563080594</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>251.5474563080594</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>825.7478563080593</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>2870.71490765446</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>2966.87660765446</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>2937.76520765446</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>2930.41580765446</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>3992.967811070794</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>4024.780511070794</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>4196.011111070794</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>4848.273916447138</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>4555.89119908608</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>4555.89119908608</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>4215.696336443437</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>4338.412636443437</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>4338.412636443437</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>4338.412636443437</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>4346.131536443437</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>4467.213369216546</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>4501.412569216546</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>4500.557469216546</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>4539.572469216547</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>4539.572469216547</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>4543.366569216547</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>4591.976813992666</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>4505.078513992667</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>4382.529469947185</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>4382.529469947185</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>4280.569869947185</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>4280.569869947185</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>4280.569869947185</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>4280.569869947185</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>4333.745869947185</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>4338.592692295897</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>4338.592692295897</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>4348.523292295897</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>4348.523292295897</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>4341.113692295897</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>4349.428092295897</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>4342.954892295897</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>4376.992492295896</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>4481.302292295896</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>4481.302292295896</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>4459.559492295896</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>4459.559492295896</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>4353.661992295896</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>4349.650692295896</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>4349.650692295896</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>4359.645192295896</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>4359.645192295896</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>4653.279308066505</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>4604.282508066505</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>4610.002464510419</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>4568.22196451042</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>4568.22196451042</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>4586.636364510419</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>4711.051375906601</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>4701.279275906601</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>4681.4734759066</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>4743.482017195383</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>4743.482017195383</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>4780.116217195384</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>4690.652117195384</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>4672.573417195384</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>5031.564513610636</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>5032.595913610636</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>5032.595913610636</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>5136.056266370724</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>5131.213566370724</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>5131.213566370724</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>5131.213566370724</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>5137.060066370724</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>5124.592866370724</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>5045.819266370723</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>5045.819266370723</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>4903.711566370724</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>4903.711566370724</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>4773.738166370724</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>5177.030948357754</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>5167.478248357754</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>5221.279248357754</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>5255.640044241295</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>5368.237415806409</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>5368.237415806409</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>5368.237415806409</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>5368.237415806409</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>5338.077515806409</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>5353.376715806409</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>5237.962415806409</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>5237.962415806409</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>5269.838215806409</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>5269.822215806409</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>5279.2790497777</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>5292.057315806409</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>5292.057315806409</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>5232.58951580641</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>5228.379815806409</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>5227.739115806409</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>5186.93311580641</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>5186.93311580641</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>5146.73271580641</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>5265.073215806409</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>5346.51941580641</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>5364.367715806409</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>5364.367715806409</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>5313.547815806409</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>5329.505163363024</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>5329.505163363024</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>5318.284563363024</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>5318.284563363024</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>5320.246963363024</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>5320.246963363024</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>5320.246963363024</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>5332.85885215921</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>5601.46950856183</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>5739.67940856183</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>5511.623715793603</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>5511.623715793603</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>5667.172815793603</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>5675.140815793603</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>5622.038415793603</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>5651.598715793603</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>5717.653615793603</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>5586.087215793604</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>5586.087215793604</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>5666.993215793604</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>5712.966615793604</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>5788.544615793604</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>5978.518315793604</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>5931.514415793605</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>5931.514415793605</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>5931.514415793605</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>5908.844615793605</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>5908.844615793605</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>5908.844615793605</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>5908.844615793605</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>5908.844615793605</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>5792.768015793605</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>5792.768015793605</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>5773.939915793605</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>5780.730515793605</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>5780.730515793605</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>5780.730515793605</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>5780.730515793605</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>5776.253615793606</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>5673.985215793606</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>5561.624115793606</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>5566.001715793605</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>5565.890915793605</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>5565.890915793605</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>5542.329115793605</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>5478.584815793604</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>5602.209815793604</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>5536.733115793604</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>5536.733115793604</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>5567.274815793604</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>5567.274815793604</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>5646.899253775799</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>5637.394253775799</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>5637.394253775799</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>5627.7864537758</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>5629.038053775799</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>5638.0692537758</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>5669.930908731289</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>5669.930908731289</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>5714.669964721799</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>5756.8342647218</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>5637.435764721799</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>5653.8571647218</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>5653.883460579787</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>5647.383460579787</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>5647.473460579788</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>5617.256360579788</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>5617.150860579788</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>5556.833810675331</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>5433.11331067533</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>5433.11331067533</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>5855.63471067533</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>5855.63471067533</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>5856.34661067533</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>5793.73811067533</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>5793.73811067533</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>5793.73811067533</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>5793.73811067533</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>5910.934900461553</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>5910.934900461553</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>5943.178300461554</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>5943.178300461554</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>6051.835100461553</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>6051.835100461553</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>6071.835100461553</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>6094.953728736597</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>6078.564028736598</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>6082.358683039269</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>5922.750583039268</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>5934.195383039269</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>5857.736083039268</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>5857.736083039268</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>5858.676283039268</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>5850.244483039268</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>5850.244483039268</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>5887.577683039268</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>5887.577683039268</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>5887.577683039268</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>5897.517683039267</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>5915.941354400215</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>5903.464254400214</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>5903.464254400214</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>5903.464254400214</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>5904.501454400214</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>5805.324754400214</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>5805.324754400214</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>5796.217854400214</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>5801.995954400215</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>5865.517454400215</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>5860.687454400215</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>5860.687454400215</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>5858.935454400214</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>5856.343354400215</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>5872.571754400215</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>5474.092854400214</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>5474.092854400214</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>5474.092854400214</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>5474.422854400214</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>5627.965054400214</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>5613.486454400214</v>
       </c>
       <c r="H890">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>5663.886454400214</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>5663.886454400214</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>5599.178054400213</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>5599.178054400213</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>5599.178054400213</v>
       </c>
       <c r="H895">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>5599.178054400213</v>
       </c>
       <c r="H896">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>5605.989954400213</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>5634.783806594756</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>5650.995206594756</v>
       </c>
       <c r="H899">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>5650.995206594756</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>5714.397506594756</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>5714.397506594756</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>5714.397506594756</v>
       </c>
       <c r="H903">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>5724.589931446827</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>5709.333431446827</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>5709.633431446827</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>5778.088831446827</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>5801.628931446827</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>5799.351131446827</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>5931.186531446827</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>5931.186531446827</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>6048.880131446826</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>6398.41876008588</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>7406.33606008588</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>7406.33606008588</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>7351.228462206021</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>7284.726990845073</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>7176.881590845073</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>7140.887390845073</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>7140.887390845073</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>7155.659790845073</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>7154.861490845073</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>7263.027790845073</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>7261.955890845073</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>7228.008290845072</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>7229.486090845072</v>
       </c>
       <c r="H926">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>7214.230490845071</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>7214.230490845071</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>6993.667890845071</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>6993.424490845071</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>7185.88189084507</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>7185.88189084507</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>7219.136090845071</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>7210.54369084507</v>
       </c>
       <c r="H937">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>7404.43609084507</v>
       </c>
       <c r="H938">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>8536.890590845071</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>8130.037690845071</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>8176.74389084507</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>8218.78929084507</v>
       </c>
       <c r="H942">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>8156.21959084507</v>
       </c>
       <c r="H943">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>8157.843390845071</v>
       </c>
       <c r="H944">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>8956.87319084507</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>9267.78469084507</v>
       </c>
       <c r="H946">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>8259.604229261493</v>
       </c>
       <c r="H947">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>7750.334611531493</v>
       </c>
       <c r="H960">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>7759.651411531492</v>
       </c>
       <c r="H961">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>7826.295075842446</v>
       </c>
       <c r="H966">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>7782.259050266545</v>
       </c>
       <c r="H967">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>7914.453950266546</v>
       </c>
       <c r="H968">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>7914.453950266546</v>
       </c>
       <c r="H969">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>7902.567634190896</v>
       </c>
       <c r="H970">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>7997.102234190896</v>
       </c>
       <c r="H971">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>7955.656934190895</v>
       </c>
       <c r="H972">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>7955.656934190895</v>
       </c>
       <c r="H973">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>8060.216034190896</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>8060.216034190896</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>8039.973134190896</v>
       </c>
       <c r="H976">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>8044.129634190896</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>8121.611934190895</v>
       </c>
       <c r="H978">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>7821.333634190895</v>
       </c>
       <c r="H979">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>7821.333634190895</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>7847.172834190896</v>
       </c>
       <c r="H981">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>7950.629534190895</v>
       </c>
       <c r="H982">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>7929.282087033558</v>
       </c>
       <c r="H1009">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>7994.195981974734</v>
       </c>
       <c r="H1010">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>7990.296581974734</v>
       </c>
       <c r="H1011">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>8268.764022947891</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>8428.71372294789</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>8521.42702294789</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>8703.450222947889</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>8714.919222947889</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>9400.977522947889</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>9674.148379269729</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>10146.58252975739</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>10452.23909724311</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>9971.295711234505</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
